--- a/offsets.xlsx
+++ b/offsets.xlsx
@@ -3,15 +3,57 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="DoubleChine - Offset" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mibjJ0nyLAHxiwvpwluD8WkQSUSVw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J </t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,12 +85,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,177 +309,534 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9.0</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.175</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.0707</v>
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1504</v>
+        <v>4.61</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2112</v>
+        <v>3.24</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2561</v>
+        <v>2.0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.285</v>
+        <v>0.93</v>
       </c>
       <c r="G2" s="1">
-        <v>0.2949</v>
+        <v>0.0</v>
       </c>
       <c r="H2" s="1">
-        <v>0.2757</v>
+        <v>0.0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.1896</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="1">
         <v>0.0</v>
       </c>
       <c r="K2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>0.35</v>
+        <v>9.0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.6924</v>
+        <v>8.73</v>
       </c>
       <c r="C3" s="1">
-        <v>0.6965</v>
+        <v>7.85</v>
       </c>
       <c r="D3" s="1">
-        <v>0.6963</v>
+        <v>6.45</v>
       </c>
       <c r="E3" s="1">
-        <v>0.6885</v>
+        <v>5.13</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6687</v>
+        <v>4.09</v>
       </c>
       <c r="G3" s="1">
-        <v>0.6296</v>
+        <v>3.09</v>
       </c>
       <c r="H3" s="1">
-        <v>0.5548</v>
+        <v>1.88</v>
       </c>
       <c r="I3" s="1">
-        <v>0.4061</v>
+        <v>1.37</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0939</v>
+        <v>0.82</v>
       </c>
       <c r="K3" s="1">
-        <v>0.0</v>
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>0.525</v>
+        <v>18.0</v>
       </c>
       <c r="B4" s="1">
-        <v>1.3141</v>
+        <v>11.12</v>
       </c>
       <c r="C4" s="1">
-        <v>1.2426</v>
+        <v>10.41</v>
       </c>
       <c r="D4" s="1">
-        <v>1.1814</v>
+        <v>9.33</v>
       </c>
       <c r="E4" s="1">
-        <v>1.1211</v>
+        <v>8.28</v>
       </c>
       <c r="F4" s="1">
-        <v>1.0527</v>
+        <v>7.48</v>
       </c>
       <c r="G4" s="1">
-        <v>0.9647</v>
+        <v>6.63</v>
       </c>
       <c r="H4" s="1">
-        <v>0.8347</v>
+        <v>5.38</v>
       </c>
       <c r="I4" s="1">
-        <v>0.6243</v>
+        <v>4.64</v>
       </c>
       <c r="J4" s="1">
-        <v>0.2564</v>
+        <v>3.33</v>
       </c>
       <c r="K4" s="1">
-        <v>0.0</v>
+        <v>2.07</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>0.7</v>
+        <v>36.0</v>
       </c>
       <c r="B5" s="1">
-        <v>1.5509</v>
+        <v>14.0</v>
       </c>
       <c r="C5" s="1">
-        <v>1.4844</v>
+        <v>13.51</v>
       </c>
       <c r="D5" s="1">
-        <v>1.4539</v>
+        <v>13.21</v>
       </c>
       <c r="E5" s="1">
-        <v>1.4174</v>
+        <v>12.89</v>
       </c>
       <c r="F5" s="1">
-        <v>1.3674</v>
+        <v>12.61</v>
       </c>
       <c r="G5" s="1">
-        <v>1.2914</v>
+        <v>12.27</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1155</v>
+        <v>11.64</v>
       </c>
       <c r="I5" s="1">
-        <v>0.8442</v>
+        <v>11.13</v>
       </c>
       <c r="J5" s="1">
-        <v>0.4183</v>
+        <v>9.79</v>
       </c>
       <c r="K5" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14.01</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13.99</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13.98</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13.93</v>
+      </c>
+      <c r="I6" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="J6" s="1">
+        <v>13.57</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12.56</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13.83</v>
+      </c>
+      <c r="L7" s="1">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="L9" s="1">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="L10" s="1">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13.99</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14.01</v>
+      </c>
+      <c r="J11" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>13.67</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13.86</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13.69</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13.31</v>
+      </c>
+      <c r="G12" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13.05</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12.89</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12.34</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="L12" s="1">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.48</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.74</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.13</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.24</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7.86</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.57</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="1">
         <v>0.0</v>
       </c>
     </row>
